--- a/Excel Templates/Sales forecast.xlsx
+++ b/Excel Templates/Sales forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woens\Desktop\Projects In Development\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF31FD-844C-4274-BAAC-BECDC1BF5953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A462361-BD29-41F4-8B35-14BF4E6A7442}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F98C00C1-4EBF-4A20-A34F-D96A8992A454}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15460" xr2:uid="{F98C00C1-4EBF-4A20-A34F-D96A8992A454}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,9 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve"> YTD            2020Jun</t>
-  </si>
-  <si>
-    <t>Forecast                  2020</t>
   </si>
   <si>
     <t>SALES        VOLUME</t>
@@ -124,6 +115,9 @@
   </si>
   <si>
     <t>JM /kg</t>
+  </si>
+  <si>
+    <t>Forecast                  2021</t>
   </si>
 </sst>
 </file>
@@ -1231,9 +1225,9 @@
   <dimension ref="A1:AY150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="AA1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1280,139 +1274,139 @@
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>26</v>
-      </c>
       <c r="W1" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AK1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AL1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AN1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AO1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AP1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AR1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AS1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AT1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AU1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AV1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV1" s="30" t="s">
-        <v>29</v>
-      </c>
       <c r="AW1" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX1" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY1" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="23.5" thickBot="1">
@@ -1432,46 +1426,46 @@
         <v>6</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="T2" s="22" t="str">
         <f>E2</f>
@@ -1479,50 +1473,50 @@
       </c>
       <c r="U2" s="23" t="str">
         <f>F2</f>
-        <v>Forecast                  2020</v>
+        <v>Forecast                  2021</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" s="26" t="str">
         <f>G2</f>
         <v>MTD/Jul</v>
       </c>
       <c r="X2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Z2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AA2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AB2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AC2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AD2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AF2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AI2" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="AJ2" s="32" t="str">
         <f>E2</f>
@@ -1530,7 +1524,7 @@
       </c>
       <c r="AK2" s="33" t="str">
         <f>F2</f>
-        <v>Forecast                  2020</v>
+        <v>Forecast                  2021</v>
       </c>
       <c r="AL2" s="35" t="str">
         <f>V2</f>
@@ -1541,40 +1535,40 @@
         <v>MTD/Jul</v>
       </c>
       <c r="AN2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="36" t="s">
+      <c r="AP2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="36" t="s">
+      <c r="AQ2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="36" t="s">
+      <c r="AR2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AR2" s="36" t="s">
+      <c r="AS2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="36" t="s">
+      <c r="AT2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AT2" s="36" t="s">
+      <c r="AU2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="36" t="s">
+      <c r="AV2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" s="36" t="s">
+      <c r="AW2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="36" t="s">
+      <c r="AX2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="36" t="s">
+      <c r="AY2" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="AY2" s="33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:51">
